--- a/output/fit_clients/fit_round_332.xlsx
+++ b/output/fit_clients/fit_round_332.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2110142953.523284</v>
+        <v>2413480471.001414</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07675641703772179</v>
+        <v>0.1094638420615837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0405701328479888</v>
+        <v>0.03444658296820067</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1055071487.191239</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2270964034.961959</v>
+        <v>2283294732.010512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1450687023815904</v>
+        <v>0.1789664645876997</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03428465497105542</v>
+        <v>0.0418979511665292</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1135482099.515136</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4643491758.356776</v>
+        <v>5193031256.908679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.151094426144055</v>
+        <v>0.1364036614227245</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03279911558260264</v>
+        <v>0.03768610632327141</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>120</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2321745938.96187</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3307021003.334147</v>
+        <v>2983867267.173621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07899668000088883</v>
+        <v>0.06898666896994751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04952730256200621</v>
+        <v>0.04345808146274758</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1653510551.24376</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1957128604.390608</v>
+        <v>1867516923.073419</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1342678536622697</v>
+        <v>0.1134963524729701</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04379727803019182</v>
+        <v>0.04732567482781089</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>978564336.4370018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1971506804.689936</v>
+        <v>2560537948.218289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08859830045008256</v>
+        <v>0.08910289180747236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03355831185842941</v>
+        <v>0.04328173652510017</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>985753466.2342749</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3329025696.099072</v>
+        <v>3191389846.016852</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1442083268378423</v>
+        <v>0.1920040577296614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03181854110925712</v>
+        <v>0.02054330203230381</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1664512939.202359</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1620110227.971923</v>
+        <v>1580025602.259052</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1819727006450582</v>
+        <v>0.1501914444175944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02342161674682758</v>
+        <v>0.030906740368419</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>810055193.3136777</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3898452076.549613</v>
+        <v>3834395177.336275</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2154637111269521</v>
+        <v>0.1690358361137871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03619127254801524</v>
+        <v>0.05038411660513455</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>139</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1949226052.335343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3061232192.181011</v>
+        <v>2900947997.300174</v>
       </c>
       <c r="F11" t="n">
-        <v>0.141589260077836</v>
+        <v>0.122257304685093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04999011867275134</v>
+        <v>0.03347447805438534</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>137</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1530616043.294976</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2110294603.996036</v>
+        <v>2809540920.154708</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1892974001970331</v>
+        <v>0.1698294093531875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.051649049325977</v>
+        <v>0.04018002904077449</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>114</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1055147238.543013</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3406217290.238576</v>
+        <v>5332804890.234604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0946133605991016</v>
+        <v>0.1012286865388249</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02751008841584374</v>
+        <v>0.02200900209835546</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>111</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1703108730.215896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3466232698.612849</v>
+        <v>2585590061.966131</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1710725615755332</v>
+        <v>0.1525051787709379</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03257704556392031</v>
+        <v>0.02927600606207943</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>107</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1733116349.984792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1169494788.661474</v>
+        <v>1442072360.508796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06992354982714509</v>
+        <v>0.08165835438833373</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04908201351348095</v>
+        <v>0.04150100608376125</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>584747404.907346</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2727502660.213436</v>
+        <v>1967552632.47725</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07836028156364355</v>
+        <v>0.08830534190740301</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03291642908572621</v>
+        <v>0.05092298641353836</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1363751340.607923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4064539015.41375</v>
+        <v>3900572834.444783</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1282325649226987</v>
+        <v>0.1607743846870412</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04220078476443966</v>
+        <v>0.04085815650664069</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>97</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2032269539.141965</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3271836897.743374</v>
+        <v>3515702745.189176</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1187166527351007</v>
+        <v>0.1404038939342251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02329945364059613</v>
+        <v>0.03112170092501845</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>109</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1635918459.507309</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1092907937.463028</v>
+        <v>981274661.8580065</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1310527794601383</v>
+        <v>0.1416789486302085</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02372465714991248</v>
+        <v>0.01865322010635142</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>546454020.5926301</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2198903442.510256</v>
+        <v>2207662925.871043</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1396157859235586</v>
+        <v>0.1187825549865055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02088390033819004</v>
+        <v>0.03126009452135402</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1099451726.420434</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2627810995.695255</v>
+        <v>2427153218.705059</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08430735536510239</v>
+        <v>0.07694787168620106</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04073998755153876</v>
+        <v>0.0358872543777272</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1313905473.754694</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2717412373.834111</v>
+        <v>3042299406.592153</v>
       </c>
       <c r="F22" t="n">
-        <v>0.135461838574627</v>
+        <v>0.1007742660957591</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04429601950003664</v>
+        <v>0.05602131532512029</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1358706265.378396</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1413543105.904445</v>
+        <v>1208982725.08303</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1141047687090338</v>
+        <v>0.1573001187923411</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04163277784758466</v>
+        <v>0.03530184543780421</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>706771553.4626853</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2774860077.397356</v>
+        <v>3750007304.210941</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1381598805313992</v>
+        <v>0.1468286481742148</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02771571620678367</v>
+        <v>0.02880621965939574</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>97</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1387430089.086164</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1370400151.963309</v>
+        <v>951450182.1943911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07867681856788802</v>
+        <v>0.1020863986408474</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0235638397354126</v>
+        <v>0.02411414955589547</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>685200054.7444636</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1438595398.520009</v>
+        <v>1138486572.952794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08400816014624153</v>
+        <v>0.07812574990105464</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03077448320539786</v>
+        <v>0.02559945758648283</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>719297778.7006434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3765389467.148674</v>
+        <v>3895324708.20341</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1047613184336381</v>
+        <v>0.1134326106609857</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01897800615922976</v>
+        <v>0.01890859280275264</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1882694755.372344</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2733786729.430147</v>
+        <v>3896860437.652695</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1191057062339305</v>
+        <v>0.1007509250458987</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03042552244682237</v>
+        <v>0.0414578721673549</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1366893352.820054</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4010377687.334059</v>
+        <v>5828446543.106605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1213339650917073</v>
+        <v>0.1399769364721412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04090227907683819</v>
+        <v>0.03424897206629997</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>146</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2005188859.770127</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2258872574.101412</v>
+        <v>1546707368.025815</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1372895272290213</v>
+        <v>0.09361811986679176</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02685638969345306</v>
+        <v>0.03087239920999685</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1129436353.973742</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1495303315.649382</v>
+        <v>1475083596.469656</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08469987719254483</v>
+        <v>0.07146083003906294</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04896534666377918</v>
+        <v>0.04940202692872538</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>747651539.785549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1882599400.419243</v>
+        <v>1400804560.598181</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1129585140133288</v>
+        <v>0.09073664245918242</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03242208784193188</v>
+        <v>0.03166018713123504</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>941299847.8196471</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1940280597.088963</v>
+        <v>2984172846.593235</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1263690726638783</v>
+        <v>0.1678870821301259</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04927559026301723</v>
+        <v>0.03708273981593977</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>970140384.4099808</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1088265381.793277</v>
+        <v>1184370486.975279</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08498419374120805</v>
+        <v>0.08201763270136686</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02076631501432987</v>
+        <v>0.02259823955238604</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>544132714.24931</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1147724604.643905</v>
+        <v>860785102.7930659</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09091575829328873</v>
+        <v>0.07169429635178765</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02825052010368757</v>
+        <v>0.03247928663834275</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>573862288.5324599</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2818129846.248136</v>
+        <v>2486215972.83683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1335320903436875</v>
+        <v>0.1303703795437137</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02376855400460934</v>
+        <v>0.01808755907221421</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>83</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1409064919.617959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2053130747.46323</v>
+        <v>1959146572.755373</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09828786094364478</v>
+        <v>0.1092184458425379</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03191094937084614</v>
+        <v>0.03551271077308043</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>89</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1026565408.312859</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2092364532.164079</v>
+        <v>2186910377.640313</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07806651987184965</v>
+        <v>0.111440203783236</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03925231067116136</v>
+        <v>0.03770374916061376</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1046182231.667777</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1655700891.229755</v>
+        <v>2097464529.128272</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1205348013972597</v>
+        <v>0.1274926017820923</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02635286465811605</v>
+        <v>0.02146739246714096</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>827850492.4155496</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1220830730.887649</v>
+        <v>1781232021.975214</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1178407383446027</v>
+        <v>0.1185892703340229</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04283757267627467</v>
+        <v>0.03698445940750947</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>610415401.5128868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2159274150.261051</v>
+        <v>2532240229.25434</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1587476954451519</v>
+        <v>0.1036994334790885</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03083963072732016</v>
+        <v>0.03375839172946986</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1079637133.734748</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3335216843.460432</v>
+        <v>2629540939.333128</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07742942573244997</v>
+        <v>0.08771630296950077</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0356762725982674</v>
+        <v>0.03151152454362658</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>107</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1667608405.237037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2703420599.330639</v>
+        <v>2987202357.303926</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1262415443321113</v>
+        <v>0.2038883394931683</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02262375830085723</v>
+        <v>0.02406625502954661</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>119</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1351710327.864033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1540895905.269016</v>
+        <v>1606157637.441072</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07514690510131325</v>
+        <v>0.07340812015729486</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02934389371131223</v>
+        <v>0.02824437263161687</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>770447967.3705308</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2146867612.329887</v>
+        <v>2332630785.516011</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1717654833685802</v>
+        <v>0.1470373509801366</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03742301938054445</v>
+        <v>0.04365534911889512</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1073433811.826755</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4413032760.926841</v>
+        <v>3764898337.194823</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1542218670958398</v>
+        <v>0.1229912669664821</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04134564599048005</v>
+        <v>0.03938617483734884</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>118</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2206516373.687531</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4672368122.191562</v>
+        <v>4857890630.458966</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1680174215004951</v>
+        <v>0.1476427616830528</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04187608125193391</v>
+        <v>0.043257706273928</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>89</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2336184098.340123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4347591953.581729</v>
+        <v>3613514601.094858</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07556591264984171</v>
+        <v>0.1037255768882951</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03360184989642659</v>
+        <v>0.03678140136084111</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>109</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2173795990.943597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1781813144.54822</v>
+        <v>1521335541.923606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1887564011082669</v>
+        <v>0.1493926412843368</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04253813251469535</v>
+        <v>0.04193252755732238</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>890906560.5024072</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2635914833.251616</v>
+        <v>2594706726.942809</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1331588184412084</v>
+        <v>0.1190536271913134</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03383282506791439</v>
+        <v>0.05162370112125688</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>113</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1317957502.387004</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1288417979.978776</v>
+        <v>1150376415.337368</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1676204752180561</v>
+        <v>0.127745132631935</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04184551329396534</v>
+        <v>0.04086450136816606</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>644209027.2171899</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4204270527.324305</v>
+        <v>5170858374.143892</v>
       </c>
       <c r="F52" t="n">
-        <v>0.103155930848529</v>
+        <v>0.1163826218658932</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06021476812619662</v>
+        <v>0.05338098714788651</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>136</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2102135308.124411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3417299216.207794</v>
+        <v>3312794633.176749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1479248970704702</v>
+        <v>0.1951276710359476</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03006126467855925</v>
+        <v>0.02573037158988955</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1708649611.696794</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4331040254.841227</v>
+        <v>3599991508.710705</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1354822429952255</v>
+        <v>0.1532051291407588</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03457322114685709</v>
+        <v>0.04697748086925866</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2165520217.508952</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3530272395.782046</v>
+        <v>3950167560.31745</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681490462316125</v>
+        <v>0.1777270038315072</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02733402727219595</v>
+        <v>0.02939024780381682</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1765136152.065744</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1346578569.856803</v>
+        <v>1210283189.224926</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1132694982948204</v>
+        <v>0.1443564843265751</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04604814997252388</v>
+        <v>0.04338050093331987</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>673289349.8963437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3105313294.851099</v>
+        <v>3612207779.439987</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1453790454341499</v>
+        <v>0.125891838314506</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01916447973493569</v>
+        <v>0.02716111619020008</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1552656660.676916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1503345998.634474</v>
+        <v>1783293817.859666</v>
       </c>
       <c r="F58" t="n">
-        <v>0.20222547396915</v>
+        <v>0.1618325182407777</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02934658502208691</v>
+        <v>0.02493557648848919</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>751673030.1456758</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5270807220.530024</v>
+        <v>3322572371.542937</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09009831146582872</v>
+        <v>0.1206733881324317</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03638310464721035</v>
+        <v>0.03500607445999075</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2635403524.901386</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3491782320.768153</v>
+        <v>3761588309.118281</v>
       </c>
       <c r="F60" t="n">
-        <v>0.159665944205426</v>
+        <v>0.1521075552530105</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0222054606539604</v>
+        <v>0.02082835256646623</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>103</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1745891282.327143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2373277683.039784</v>
+        <v>3376085605.571689</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1553366947873103</v>
+        <v>0.1453900268327947</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02694618465831592</v>
+        <v>0.0292092418045483</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>114</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1186638881.100812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1728847956.005354</v>
+        <v>1540945593.247295</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1492297178395403</v>
+        <v>0.1508969584752341</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04888588664514212</v>
+        <v>0.03442326063472598</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>864423995.4189858</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4791645413.831356</v>
+        <v>3924490512.132602</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08308478453030989</v>
+        <v>0.1036153814954439</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03849657910771311</v>
+        <v>0.03132779572662437</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2395822733.965998</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4754536641.287166</v>
+        <v>5236873068.874683</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1161747163186071</v>
+        <v>0.182970841392073</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02464359268429538</v>
+        <v>0.02827751231676862</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>103</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2377268409.58036</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4888589832.68324</v>
+        <v>5409171956.181973</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1691139151845182</v>
+        <v>0.1114778524526221</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02811558575494645</v>
+        <v>0.02656170967524874</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2444294881.892863</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5366286012.868054</v>
+        <v>3935090079.726737</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1450092938238686</v>
+        <v>0.1601836824686652</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04124679997732549</v>
+        <v>0.03881580201047165</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>96</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2683143053.260687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2783673225.645936</v>
+        <v>3431650253.982793</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07095290534499897</v>
+        <v>0.1026191974880222</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03488099120138748</v>
+        <v>0.0433046762037317</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>106</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1391836649.441995</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3819205080.275183</v>
+        <v>5874879282.912271</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1462715421130303</v>
+        <v>0.1048401117474087</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0506181788775708</v>
+        <v>0.04093073677255583</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1909602524.968544</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1767963014.229153</v>
+        <v>2371535956.202895</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1460865472997735</v>
+        <v>0.1295685226056683</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04431113515043783</v>
+        <v>0.04959972098304313</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>883981482.100756</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2777497346.145427</v>
+        <v>2340445189.267342</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06697331337306245</v>
+        <v>0.06619113402218131</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04225084065582996</v>
+        <v>0.03956253008142512</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>95</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1388748635.567516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4681373326.135179</v>
+        <v>5349159862.092744</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1252608648093206</v>
+        <v>0.1549127548241638</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02441773834600726</v>
+        <v>0.03275046384964592</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>121</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2340686745.026686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2151075314.619415</v>
+        <v>1811087286.584142</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07810239710809777</v>
+        <v>0.06928220622440731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03809304209484165</v>
+        <v>0.0434382377760267</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1075537579.305334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2402724300.83896</v>
+        <v>3290965012.090411</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0898336216252178</v>
+        <v>0.11002865460702</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03436545726828651</v>
+        <v>0.04022119972100141</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1201362201.086869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3009018418.341847</v>
+        <v>4006907495.982034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1817974079598958</v>
+        <v>0.1733719868229429</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0257786288995555</v>
+        <v>0.03377764382594405</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>113</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1504509273.762567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1954418880.859002</v>
+        <v>2172713748.330092</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1512291579809356</v>
+        <v>0.1359853926387871</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03536234656989846</v>
+        <v>0.02811348193964803</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>977209408.8427718</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3851509297.665968</v>
+        <v>4231392310.975868</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1111737319665441</v>
+        <v>0.08444423956629488</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0302114408988688</v>
+        <v>0.02422022798360407</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1925754627.302063</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2087954715.746834</v>
+        <v>1510919761.236613</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1604431438179229</v>
+        <v>0.1528142343435143</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02663546590960581</v>
+        <v>0.02519468896000244</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1043977432.424834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3533136771.289849</v>
+        <v>4063089999.512947</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1157890814386756</v>
+        <v>0.1342435516398436</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03697933232010325</v>
+        <v>0.05621449394406657</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>115</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1766568384.789405</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1599395407.499369</v>
+        <v>1746429632.642517</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1108983467854259</v>
+        <v>0.1396689730599735</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02856764448548945</v>
+        <v>0.03612984344651169</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>799697755.3592724</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4766302301.104444</v>
+        <v>5296358052.234444</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09701927929521593</v>
+        <v>0.07174954789943046</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02421974171858349</v>
+        <v>0.03712638767016617</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2383151188.129277</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3745318302.222473</v>
+        <v>3743248513.911277</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1158044599729449</v>
+        <v>0.1246221428113289</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03007458042705054</v>
+        <v>0.0275028065121218</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>77</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1872659104.871793</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4374117639.993402</v>
+        <v>4050031336.490952</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1609730503508635</v>
+        <v>0.1390639240875814</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01898426749275827</v>
+        <v>0.0204809795557424</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2187058838.878583</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1814752975.646087</v>
+        <v>2441427045.749985</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1413724442856688</v>
+        <v>0.1093560891283784</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03127528283967237</v>
+        <v>0.04156460550242293</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>907376450.102988</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2083833497.921413</v>
+        <v>1580998437.834891</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07549638690414386</v>
+        <v>0.1170832945113238</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03428438323322696</v>
+        <v>0.03334752749338044</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1041916741.703525</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2794570829.246293</v>
+        <v>2803018974.025966</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1256292302310481</v>
+        <v>0.1723161447714371</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05486082183160744</v>
+        <v>0.04285863290032363</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>125</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1397285452.101546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2194309090.853767</v>
+        <v>2463147079.719517</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1489772358703131</v>
+        <v>0.152826807527332</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02317245356080542</v>
+        <v>0.01755052513741936</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1097154600.07759</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1090486717.599457</v>
+        <v>1122521899.352202</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1165139019415188</v>
+        <v>0.1742940795320915</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03649690588639722</v>
+        <v>0.04113206357102762</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>545243386.3163004</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2377926627.240264</v>
+        <v>3540996044.648572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1621502008215856</v>
+        <v>0.1193391514883439</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0305417348313746</v>
+        <v>0.03892398283611047</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>131</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1188963282.590616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3019490632.231323</v>
+        <v>2236115247.235499</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1376711122799786</v>
+        <v>0.1078407339008156</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03983537783845203</v>
+        <v>0.03343692016094631</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>111</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1509745352.79593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1312188397.112975</v>
+        <v>1963580163.155092</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1375528788725809</v>
+        <v>0.1204170228536086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04846517718156482</v>
+        <v>0.05560878562690753</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>656094142.9173851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1440286185.233225</v>
+        <v>1393450543.462543</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1512618458998897</v>
+        <v>0.1223767757299057</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04860836934298525</v>
+        <v>0.0548112903472835</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>720143139.5008928</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2925875442.468419</v>
+        <v>2633240439.846148</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09655612176799699</v>
+        <v>0.1056533255582707</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03220261670303421</v>
+        <v>0.03863437836980266</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>89</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1462937737.356323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4664443940.64254</v>
+        <v>3701414884.454489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1078291053340015</v>
+        <v>0.1069650657145003</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0413318848129465</v>
+        <v>0.03923083558009398</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2332221927.979978</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2194952620.931247</v>
+        <v>2114706812.175175</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1500604043824195</v>
+        <v>0.1186160644985957</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03013277653619438</v>
+        <v>0.03667258407457784</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1097476334.254721</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2214937853.837064</v>
+        <v>2166186341.316047</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0918437794026422</v>
+        <v>0.1055099661730628</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05158765371144844</v>
+        <v>0.05244070675987078</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>80</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1107468983.781523</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2050969743.287599</v>
+        <v>1467776143.514465</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1058416806182673</v>
+        <v>0.1338236153101288</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04208964608433298</v>
+        <v>0.03129325326684172</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1025484853.199601</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4358234119.079246</v>
+        <v>4703000595.732309</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1536540643997232</v>
+        <v>0.1143959667777395</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0254317628933126</v>
+        <v>0.02604757223495012</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>107</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2179117144.729588</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3132959089.093677</v>
+        <v>3726446279.679195</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09778670680669294</v>
+        <v>0.1051341094212318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03042762370770359</v>
+        <v>0.0214051234793386</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1566479538.295274</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2222801909.797511</v>
+        <v>3401157308.96009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1113549045916415</v>
+        <v>0.09704372213754149</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02825620364230767</v>
+        <v>0.03473590163193218</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>105</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1111400884.554451</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3347633500.097727</v>
+        <v>3991200161.511502</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1606258072885466</v>
+        <v>0.1307486790505882</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0198966373132375</v>
+        <v>0.02091330715092304</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>104</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1673816768.654391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2784877892.668282</v>
+        <v>3501336637.861688</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2184351139892458</v>
+        <v>0.2108791708777872</v>
       </c>
       <c r="G101" t="n">
-        <v>0.038439682545507</v>
+        <v>0.04600718744878207</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>133</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1392439006.973331</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_332.xlsx
+++ b/output/fit_clients/fit_round_332.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2413480471.001414</v>
+        <v>1673083679.970967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1094638420615837</v>
+        <v>0.1089595424474577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03444658296820067</v>
+        <v>0.04312320560363933</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2283294732.010512</v>
+        <v>2211876271.838279</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1789664645876997</v>
+        <v>0.1719441238065874</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0418979511665292</v>
+        <v>0.04463455681927225</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5193031256.908679</v>
+        <v>4263034641.500281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1364036614227245</v>
+        <v>0.1285489636078025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03768610632327141</v>
+        <v>0.03083674793919887</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2983867267.173621</v>
+        <v>3745450206.340751</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06898666896994751</v>
+        <v>0.1107605455122522</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04345808146274758</v>
+        <v>0.0503959604231358</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1867516923.073419</v>
+        <v>2414323663.549091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134963524729701</v>
+        <v>0.09623046907456025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04732567482781089</v>
+        <v>0.04678045717196871</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2560537948.218289</v>
+        <v>2412303368.723262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08910289180747236</v>
+        <v>0.07595040147473534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04328173652510017</v>
+        <v>0.03936125855674232</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3191389846.016852</v>
+        <v>3842324435.154227</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1920040577296614</v>
+        <v>0.2005822876204851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02054330203230381</v>
+        <v>0.02410497941122607</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1580025602.259052</v>
+        <v>1920465609.982427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1501914444175944</v>
+        <v>0.1701207618946271</v>
       </c>
       <c r="G9" t="n">
-        <v>0.030906740368419</v>
+        <v>0.02399077371705787</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3834395177.336275</v>
+        <v>5875602612.022133</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1690358361137871</v>
+        <v>0.2004419247680115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05038411660513455</v>
+        <v>0.03933301662802693</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2900947997.300174</v>
+        <v>4221970116.383162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.122257304685093</v>
+        <v>0.158898831521617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03347447805438534</v>
+        <v>0.03848552900569835</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2809540920.154708</v>
+        <v>2940068143.820822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1698294093531875</v>
+        <v>0.184981268086158</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04018002904077449</v>
+        <v>0.03482788568479288</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5332804890.234604</v>
+        <v>5101743408.752958</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1012286865388249</v>
+        <v>0.06366157467400461</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02200900209835546</v>
+        <v>0.03020213972991476</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2585590061.966131</v>
+        <v>3870980459.983425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1525051787709379</v>
+        <v>0.1858521992893971</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02927600606207943</v>
+        <v>0.0406719836769209</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1442072360.508796</v>
+        <v>1177324369.810281</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08165835438833373</v>
+        <v>0.0928964042120239</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04150100608376125</v>
+        <v>0.03142662920855888</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1967552632.47725</v>
+        <v>2492072990.702584</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08830534190740301</v>
+        <v>0.09195783220555229</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05092298641353836</v>
+        <v>0.04106178931305764</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3900572834.444783</v>
+        <v>4073551185.145911</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1607743846870412</v>
+        <v>0.1056414834168972</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04085815650664069</v>
+        <v>0.05217460324706308</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3515702745.189176</v>
+        <v>3563640427.49402</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1404038939342251</v>
+        <v>0.1334429352895876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03112170092501845</v>
+        <v>0.02158087541645526</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>981274661.8580065</v>
+        <v>1259467207.610815</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1416789486302085</v>
+        <v>0.1572621856403143</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01865322010635142</v>
+        <v>0.02594185014263093</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2207662925.871043</v>
+        <v>2449795019.135464</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1187825549865055</v>
+        <v>0.1338716913280377</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03126009452135402</v>
+        <v>0.02318600899499914</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2427153218.705059</v>
+        <v>2436037170.012061</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07694787168620106</v>
+        <v>0.07698144266941699</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0358872543777272</v>
+        <v>0.03768353906175204</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3042299406.592153</v>
+        <v>2442852965.000707</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1007742660957591</v>
+        <v>0.1143048149519485</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05602131532512029</v>
+        <v>0.05403500887211151</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1208982725.08303</v>
+        <v>1264926118.398161</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1573001187923411</v>
+        <v>0.1582280041938763</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03530184543780421</v>
+        <v>0.03702323848471716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3750007304.210941</v>
+        <v>3274076082.800059</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1468286481742148</v>
+        <v>0.1267347456399171</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02880621965939574</v>
+        <v>0.03062462533613331</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>951450182.1943911</v>
+        <v>1169538343.049663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1020863986408474</v>
+        <v>0.08399070046566304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02411414955589547</v>
+        <v>0.0225343186159186</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1138486572.952794</v>
+        <v>1425079107.305818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07812574990105464</v>
+        <v>0.1152739337942656</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02559945758648283</v>
+        <v>0.03477670132190382</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3895324708.20341</v>
+        <v>4015277815.331548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1134326106609857</v>
+        <v>0.1506434674473148</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01890859280275264</v>
+        <v>0.02344610997411301</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3896860437.652695</v>
+        <v>3812157201.605258</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1007509250458987</v>
+        <v>0.1080331412359622</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0414578721673549</v>
+        <v>0.04598584320765958</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5828446543.106605</v>
+        <v>3793353481.3336</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1399769364721412</v>
+        <v>0.1064288372814506</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03424897206629997</v>
+        <v>0.04484799649574773</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1546707368.025815</v>
+        <v>1640504254.66515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09361811986679176</v>
+        <v>0.08708551751031023</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03087239920999685</v>
+        <v>0.02559511653315399</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1475083596.469656</v>
+        <v>1454583125.282164</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07146083003906294</v>
+        <v>0.1098719431128597</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04940202692872538</v>
+        <v>0.03876787439258109</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1400804560.598181</v>
+        <v>1448503071.731998</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09073664245918242</v>
+        <v>0.08003489567911351</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03166018713123504</v>
+        <v>0.02726006452996898</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2984172846.593235</v>
+        <v>2289118210.774566</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1678870821301259</v>
+        <v>0.1521161521013951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03708273981593977</v>
+        <v>0.0393568102399667</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1184370486.975279</v>
+        <v>1182662270.269434</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08201763270136686</v>
+        <v>0.09116714644749702</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02259823955238604</v>
+        <v>0.01840821546735726</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>860785102.7930659</v>
+        <v>933407113.4814363</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07169429635178765</v>
+        <v>0.08906383436554491</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03247928663834275</v>
+        <v>0.04062057114483113</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2486215972.83683</v>
+        <v>2021190818.976731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1303703795437137</v>
+        <v>0.1453741291108511</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01808755907221421</v>
+        <v>0.01935607442088164</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1959146572.755373</v>
+        <v>2005871290.816805</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1092184458425379</v>
+        <v>0.09458553246340014</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03551271077308043</v>
+        <v>0.03743571985726846</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2186910377.640313</v>
+        <v>1403504111.674405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.111440203783236</v>
+        <v>0.102575992698075</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03770374916061376</v>
+        <v>0.03347203408599518</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2097464529.128272</v>
+        <v>2214137388.130126</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1274926017820923</v>
+        <v>0.1911793178586332</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02146739246714096</v>
+        <v>0.03236334037014701</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1781232021.975214</v>
+        <v>1260733946.316211</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1185892703340229</v>
+        <v>0.1335509960986018</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03698445940750947</v>
+        <v>0.05515202095666025</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2532240229.25434</v>
+        <v>2667275908.9659</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1036994334790885</v>
+        <v>0.1597649273072092</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03375839172946986</v>
+        <v>0.04487761433898898</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2629540939.333128</v>
+        <v>3601548649.569137</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08771630296950077</v>
+        <v>0.09407820610131189</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03151152454362658</v>
+        <v>0.03116888045557075</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2987202357.303926</v>
+        <v>2599856984.642985</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2038883394931683</v>
+        <v>0.1757900964653953</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02406625502954661</v>
+        <v>0.02460067777605702</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1606157637.441072</v>
+        <v>1762471919.943406</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07340812015729486</v>
+        <v>0.092913664049269</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02824437263161687</v>
+        <v>0.03383037119342589</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2332630785.516011</v>
+        <v>2394397612.920978</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1470373509801366</v>
+        <v>0.1726525343174549</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04365534911889512</v>
+        <v>0.04475670196925959</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3764898337.194823</v>
+        <v>3857856435.130864</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1229912669664821</v>
+        <v>0.1165764904838403</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03938617483734884</v>
+        <v>0.04958676144369128</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4857890630.458966</v>
+        <v>3492541111.048343</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1476427616830528</v>
+        <v>0.1250290455523987</v>
       </c>
       <c r="G47" t="n">
-        <v>0.043257706273928</v>
+        <v>0.04944076384886615</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3613514601.094858</v>
+        <v>3515307255.631836</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1037255768882951</v>
+        <v>0.08752231136389732</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03678140136084111</v>
+        <v>0.02697922553554943</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1521335541.923606</v>
+        <v>1275476570.619006</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1493926412843368</v>
+        <v>0.1924391480277798</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04193252755732238</v>
+        <v>0.03588265896253912</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2594706726.942809</v>
+        <v>3404228412.957262</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190536271913134</v>
+        <v>0.1110877352832739</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05162370112125688</v>
+        <v>0.04354326801928007</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1150376415.337368</v>
+        <v>1427713745.028814</v>
       </c>
       <c r="F51" t="n">
-        <v>0.127745132631935</v>
+        <v>0.1788112218177369</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04086450136816606</v>
+        <v>0.03538365172156304</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5170858374.143892</v>
+        <v>4001423263.696546</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1163826218658932</v>
+        <v>0.1042304684025696</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05338098714788651</v>
+        <v>0.04051168386187903</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3312794633.176749</v>
+        <v>3185250087.662343</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1951276710359476</v>
+        <v>0.183036395940269</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02573037158988955</v>
+        <v>0.03155778944384934</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3599991508.710705</v>
+        <v>4683907391.776572</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1532051291407588</v>
+        <v>0.1492365614301872</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04697748086925866</v>
+        <v>0.03975213288665155</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3950167560.31745</v>
+        <v>3215491092.218843</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1777270038315072</v>
+        <v>0.1781243978565864</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02939024780381682</v>
+        <v>0.03111084246376644</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1210283189.224926</v>
+        <v>1399098576.126012</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1443564843265751</v>
+        <v>0.1202339155189829</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04338050093331987</v>
+        <v>0.056914936497238</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3612207779.439987</v>
+        <v>4108435434.857038</v>
       </c>
       <c r="F57" t="n">
-        <v>0.125891838314506</v>
+        <v>0.1718590152747313</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02716111619020008</v>
+        <v>0.01734192720468176</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1783293817.859666</v>
+        <v>1788599178.267233</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1618325182407777</v>
+        <v>0.1797879332980988</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02493557648848919</v>
+        <v>0.0356464002639678</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3322572371.542937</v>
+        <v>4212171741.421541</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1206733881324317</v>
+        <v>0.1269056673682147</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03500607445999075</v>
+        <v>0.03522401629505896</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3761588309.118281</v>
+        <v>3759592791.653871</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1521075552530105</v>
+        <v>0.1545983989854062</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02082835256646623</v>
+        <v>0.02203725030138643</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3376085605.571689</v>
+        <v>2929730742.683167</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1453900268327947</v>
+        <v>0.1350192862699688</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0292092418045483</v>
+        <v>0.02358127492799311</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1540945593.247295</v>
+        <v>1747884613.770914</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1508969584752341</v>
+        <v>0.1493618931181218</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03442326063472598</v>
+        <v>0.03160587760556807</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3924490512.132602</v>
+        <v>5408715669.091344</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1036153814954439</v>
+        <v>0.1016083616313</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03132779572662437</v>
+        <v>0.03148627432554707</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5236873068.874683</v>
+        <v>4939260807.282177</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182970841392073</v>
+        <v>0.1767509062998313</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02827751231676862</v>
+        <v>0.03066143330470779</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5409171956.181973</v>
+        <v>5125047635.839473</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1114778524526221</v>
+        <v>0.1624053360493991</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02656170967524874</v>
+        <v>0.02241558778056442</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3935090079.726737</v>
+        <v>4858045412.198896</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1601836824686652</v>
+        <v>0.1566792450430923</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03881580201047165</v>
+        <v>0.04841710326708479</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3431650253.982793</v>
+        <v>3166996598.255589</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026191974880222</v>
+        <v>0.07341042427187149</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0433046762037317</v>
+        <v>0.04731320393855496</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5874879282.912271</v>
+        <v>5687569202.091475</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1048401117474087</v>
+        <v>0.1400283308739025</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04093073677255583</v>
+        <v>0.04166000293780397</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2371535956.202895</v>
+        <v>1558141835.695692</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1295685226056683</v>
+        <v>0.1216450798920082</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04959972098304313</v>
+        <v>0.05307689031778944</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2340445189.267342</v>
+        <v>3596638541.034442</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06619113402218131</v>
+        <v>0.07547635864568446</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03956253008142512</v>
+        <v>0.04295628154983858</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5349159862.092744</v>
+        <v>4735003659.515289</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1549127548241638</v>
+        <v>0.168631465696555</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03275046384964592</v>
+        <v>0.0285734236154947</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1811087286.584142</v>
+        <v>2101945037.098297</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06928220622440731</v>
+        <v>0.1088551629950558</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0434382377760267</v>
+        <v>0.04043051286423827</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3290965012.090411</v>
+        <v>3104519595.857226</v>
       </c>
       <c r="F73" t="n">
-        <v>0.11002865460702</v>
+        <v>0.1020229904217189</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04022119972100141</v>
+        <v>0.04466885570074604</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4006907495.982034</v>
+        <v>3688982553.970529</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1733719868229429</v>
+        <v>0.1686247427814273</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03377764382594405</v>
+        <v>0.02153772717068347</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2172713748.330092</v>
+        <v>2074383434.287693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1359853926387871</v>
+        <v>0.1561363761268004</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02811348193964803</v>
+        <v>0.02393087358501521</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4231392310.975868</v>
+        <v>3788204636.615045</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08444423956629488</v>
+        <v>0.08391321541419537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02422022798360407</v>
+        <v>0.02378829658917819</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1510919761.236613</v>
+        <v>1508429573.972487</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1528142343435143</v>
+        <v>0.155649080716767</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02519468896000244</v>
+        <v>0.02532418790872984</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4063089999.512947</v>
+        <v>3199394937.884514</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1342435516398436</v>
+        <v>0.1155461568621408</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05621449394406657</v>
+        <v>0.04543252915342055</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1746429632.642517</v>
+        <v>1328621900.796042</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1396689730599735</v>
+        <v>0.1642236306219479</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03612984344651169</v>
+        <v>0.03692243189881236</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5296358052.234444</v>
+        <v>5376809332.373082</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07174954789943046</v>
+        <v>0.1099825428067978</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03712638767016617</v>
+        <v>0.02763130420226563</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3743248513.911277</v>
+        <v>4738010234.725452</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1246221428113289</v>
+        <v>0.1178622183310321</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0275028065121218</v>
+        <v>0.02946631450809273</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4050031336.490952</v>
+        <v>5515833679.083915</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1390639240875814</v>
+        <v>0.1902548810493934</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0204809795557424</v>
+        <v>0.02796416945677865</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2441427045.749985</v>
+        <v>2392849793.637199</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1093560891283784</v>
+        <v>0.1104661380469656</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04156460550242293</v>
+        <v>0.04003529399843212</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1580998437.834891</v>
+        <v>2244613536.546493</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1170832945113238</v>
+        <v>0.08440710281000385</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03334752749338044</v>
+        <v>0.03244856178608358</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2803018974.025966</v>
+        <v>2943188160.655216</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1723161447714371</v>
+        <v>0.1274477464547459</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04285863290032363</v>
+        <v>0.03729343867605131</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2463147079.719517</v>
+        <v>2530034659.429924</v>
       </c>
       <c r="F86" t="n">
-        <v>0.152826807527332</v>
+        <v>0.1344422711455238</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01755052513741936</v>
+        <v>0.02511026431117338</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1122521899.352202</v>
+        <v>953940781.7150351</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1742940795320915</v>
+        <v>0.1287386226497371</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04113206357102762</v>
+        <v>0.0318590809718339</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3540996044.648572</v>
+        <v>3320798231.945082</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1193391514883439</v>
+        <v>0.1098092400578711</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03892398283611047</v>
+        <v>0.02898541677760555</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2236115247.235499</v>
+        <v>2712284682.212148</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1078407339008156</v>
+        <v>0.1194609393215208</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03343692016094631</v>
+        <v>0.03384833575793914</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1963580163.155092</v>
+        <v>1617975157.144084</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1204170228536086</v>
+        <v>0.1166918457712023</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05560878562690753</v>
+        <v>0.03762841990584554</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1393450543.462543</v>
+        <v>1500651902.144945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1223767757299057</v>
+        <v>0.1276971051104228</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0548112903472835</v>
+        <v>0.05570106079019544</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2633240439.846148</v>
+        <v>2994925173.104182</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1056533255582707</v>
+        <v>0.09646725820851201</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03863437836980266</v>
+        <v>0.04523183348940405</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3701414884.454489</v>
+        <v>3210414394.281566</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1069650657145003</v>
+        <v>0.1310380790074391</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03923083558009398</v>
+        <v>0.04051986462391132</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2114706812.175175</v>
+        <v>2141641337.100383</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1186160644985957</v>
+        <v>0.117592870867485</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03667258407457784</v>
+        <v>0.03876791605352138</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2166186341.316047</v>
+        <v>3023526807.019208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1055099661730628</v>
+        <v>0.0967214238012782</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05244070675987078</v>
+        <v>0.04604341978034448</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1467776143.514465</v>
+        <v>1465028482.100983</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1338236153101288</v>
+        <v>0.1188534825324339</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03129325326684172</v>
+        <v>0.03763675987361016</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4703000595.732309</v>
+        <v>3523514969.833417</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1143959667777395</v>
+        <v>0.1725051332450213</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02604757223495012</v>
+        <v>0.01998045084968994</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3726446279.679195</v>
+        <v>2637906363.271148</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1051341094212318</v>
+        <v>0.09798716876175535</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0214051234793386</v>
+        <v>0.02854334647836205</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3401157308.96009</v>
+        <v>3033775224.088799</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09704372213754149</v>
+        <v>0.1418680837546482</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03473590163193218</v>
+        <v>0.02906334099184738</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3991200161.511502</v>
+        <v>4303613435.193202</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1307486790505882</v>
+        <v>0.1192626919321095</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02091330715092304</v>
+        <v>0.02752305795402175</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3501336637.861688</v>
+        <v>3582031450.481087</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2108791708777872</v>
+        <v>0.1440750264319674</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04600718744878207</v>
+        <v>0.04054456670506515</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_332.xlsx
+++ b/output/fit_clients/fit_round_332.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1673083679.970967</v>
+        <v>2379256582.293883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1089595424474577</v>
+        <v>0.08912933868501205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04312320560363933</v>
+        <v>0.04472920979619192</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2211876271.838279</v>
+        <v>2266796769.23548</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1719441238065874</v>
+        <v>0.1314260104987805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04463455681927225</v>
+        <v>0.03997799987911265</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4263034641.500281</v>
+        <v>3576397239.454584</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1285489636078025</v>
+        <v>0.1160745583522698</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03083674793919887</v>
+        <v>0.02694705430857055</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>172</v>
+      </c>
+      <c r="J4" t="n">
+        <v>332</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3745450206.340751</v>
+        <v>2689050596.75844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1107605455122522</v>
+        <v>0.1072655358103165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0503959604231358</v>
+        <v>0.04360467706035027</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>329</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2414323663.549091</v>
+        <v>2215591349.536433</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09623046907456025</v>
+        <v>0.09423010687410838</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04678045717196871</v>
+        <v>0.04872676344117691</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2412303368.723262</v>
+        <v>2661160909.594887</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07595040147473534</v>
+        <v>0.07717163950376285</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03936125855674232</v>
+        <v>0.03293264264953041</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3842324435.154227</v>
+        <v>3223314262.976246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2005822876204851</v>
+        <v>0.164472841382537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02410497941122607</v>
+        <v>0.02800070492744748</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1920465609.982427</v>
+        <v>1526998206.163566</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1701207618946271</v>
+        <v>0.1989624723459751</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02399077371705787</v>
+        <v>0.02614238112851855</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5875602612.022133</v>
+        <v>5265039991.740981</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2004419247680115</v>
+        <v>0.1970161293760316</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03933301662802693</v>
+        <v>0.04876339487896886</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>286</v>
+      </c>
+      <c r="J10" t="n">
+        <v>331</v>
+      </c>
+      <c r="K10" t="n">
+        <v>69.73239923344067</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4221970116.383162</v>
+        <v>3532032834.311625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.158898831521617</v>
+        <v>0.1553734192041364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03848552900569835</v>
+        <v>0.04680741569455076</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>134</v>
+      </c>
+      <c r="J11" t="n">
+        <v>332</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2940068143.820822</v>
+        <v>3126651253.903727</v>
       </c>
       <c r="F12" t="n">
-        <v>0.184981268086158</v>
+        <v>0.1416169441550509</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03482788568479288</v>
+        <v>0.04036210548707304</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5101743408.752958</v>
+        <v>4335822559.232296</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06366157467400461</v>
+        <v>0.0765739378047845</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03020213972991476</v>
+        <v>0.02549694376343416</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>173</v>
+      </c>
+      <c r="J13" t="n">
+        <v>331</v>
+      </c>
+      <c r="K13" t="n">
+        <v>69.72888172402035</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3870980459.983425</v>
+        <v>2449149367.49098</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1858521992893971</v>
+        <v>0.1563346149781596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0406719836769209</v>
+        <v>0.04204321517183451</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>68</v>
+      </c>
+      <c r="J14" t="n">
+        <v>331</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.53507640414639</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1177324369.810281</v>
+        <v>1284567305.515475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0928964042120239</v>
+        <v>0.0979148554441429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03142662920855888</v>
+        <v>0.03331567930731107</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2492072990.702584</v>
+        <v>2679040797.247635</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09195783220555229</v>
+        <v>0.09712039826324549</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04106178931305764</v>
+        <v>0.03306396967938228</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4073551185.145911</v>
+        <v>3389615327.110546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1056414834168972</v>
+        <v>0.1592087087399153</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05217460324706308</v>
+        <v>0.04198643671920452</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>156</v>
+      </c>
+      <c r="J17" t="n">
+        <v>331</v>
+      </c>
+      <c r="K17" t="n">
+        <v>46.58321049136975</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3563640427.49402</v>
+        <v>3006292188.012198</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1334429352895876</v>
+        <v>0.1708899858637148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02158087541645526</v>
+        <v>0.03078053717807008</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1259467207.610815</v>
+        <v>1217146040.517374</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1572621856403143</v>
+        <v>0.1228101980699528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02594185014263093</v>
+        <v>0.02628735327173702</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2449795019.135464</v>
+        <v>1881489611.123337</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1338716913280377</v>
+        <v>0.1367021573951546</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02318600899499914</v>
+        <v>0.02130935241559688</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2436037170.012061</v>
+        <v>2669961803.671441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07698144266941699</v>
+        <v>0.07289701120705387</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03768353906175204</v>
+        <v>0.03857276537814511</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2442852965.000707</v>
+        <v>2655296203.671083</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1143048149519485</v>
+        <v>0.1093747389033211</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05403500887211151</v>
+        <v>0.05330759807439051</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="n">
+        <v>30.70732938288048</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1264926118.398161</v>
+        <v>1467101356.081218</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1582280041938763</v>
+        <v>0.1815868511850158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03702323848471716</v>
+        <v>0.03569523792974499</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3274076082.800059</v>
+        <v>3630185603.96382</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1267347456399171</v>
+        <v>0.1128112311281292</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03062462533613331</v>
+        <v>0.03240869082010581</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>98</v>
+      </c>
+      <c r="J24" t="n">
+        <v>332</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1169538343.049663</v>
+        <v>1324646528.135745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08399070046566304</v>
+        <v>0.1024326042516458</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0225343186159186</v>
+        <v>0.02040587052360744</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1425079107.305818</v>
+        <v>1439414554.218466</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1152739337942656</v>
+        <v>0.1132502348734122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03477670132190382</v>
+        <v>0.03350979383280641</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4015277815.331548</v>
+        <v>3526851385.075256</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1506434674473148</v>
+        <v>0.1298360560581362</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02344610997411301</v>
+        <v>0.01731053946672338</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>138</v>
+      </c>
+      <c r="J27" t="n">
+        <v>331</v>
+      </c>
+      <c r="K27" t="n">
+        <v>50.43383506835526</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3812157201.605258</v>
+        <v>2852654744.033215</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1080331412359622</v>
+        <v>0.119186906465233</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04598584320765958</v>
+        <v>0.03422400558532934</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1458,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3793353481.3336</v>
+        <v>4727630011.164949</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1064288372814506</v>
+        <v>0.1387602298945965</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04484799649574773</v>
+        <v>0.03395772517814075</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>302</v>
+      </c>
+      <c r="J29" t="n">
+        <v>332</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1640504254.66515</v>
+        <v>2220674025.316328</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08708551751031023</v>
+        <v>0.1129826599823523</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02559511653315399</v>
+        <v>0.03017010541906964</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1454583125.282164</v>
+        <v>1048706073.586239</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1098719431128597</v>
+        <v>0.1041263929357791</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03876787439258109</v>
+        <v>0.032378967846203</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1448503071.731998</v>
+        <v>1544004610.123558</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08003489567911351</v>
+        <v>0.1166970520206638</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02726006452996898</v>
+        <v>0.02917418343081464</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2289118210.774566</v>
+        <v>2038960407.285677</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1521161521013951</v>
+        <v>0.168589330530251</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0393568102399667</v>
+        <v>0.04527484188617713</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1182662270.269434</v>
+        <v>985243817.8907173</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09116714644749702</v>
+        <v>0.08225294128699967</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01840821546735726</v>
+        <v>0.02525702511608547</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>933407113.4814363</v>
+        <v>930866530.2791147</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08906383436554491</v>
+        <v>0.1179542500915147</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04062057114483113</v>
+        <v>0.04193515590123986</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2021190818.976731</v>
+        <v>2388229806.487044</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1453741291108511</v>
+        <v>0.1101177774539149</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01935607442088164</v>
+        <v>0.02044826320207067</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2005871290.816805</v>
+        <v>2157101596.098785</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09458553246340014</v>
+        <v>0.0702284799168701</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03743571985726846</v>
+        <v>0.02584127751757908</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1403504111.674405</v>
+        <v>2167491686.450647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.102575992698075</v>
+        <v>0.1166088657506894</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03347203408599518</v>
+        <v>0.02480529425903568</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2214137388.130126</v>
+        <v>2141958952.360497</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1911793178586332</v>
+        <v>0.1587851130137692</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03236334037014701</v>
+        <v>0.02793789420621573</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1260733946.316211</v>
+        <v>1124142220.895614</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1335509960986018</v>
+        <v>0.1161071007855433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05515202095666025</v>
+        <v>0.05483952774659036</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2667275908.9659</v>
+        <v>1796423628.893158</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1597649273072092</v>
+        <v>0.1460773281440479</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04487761433898898</v>
+        <v>0.03594246704077767</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3601548649.569137</v>
+        <v>4148651472.70109</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09407820610131189</v>
+        <v>0.1049348486148739</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03116888045557075</v>
+        <v>0.03669905045765649</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>140</v>
+      </c>
+      <c r="J42" t="n">
+        <v>332</v>
+      </c>
+      <c r="K42" t="n">
+        <v>82.71884003696665</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2599856984.642985</v>
+        <v>2748438388.822571</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1757900964653953</v>
+        <v>0.1429257063146771</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02460067777605702</v>
+        <v>0.0196817327735272</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1762471919.943406</v>
+        <v>1595601427.841988</v>
       </c>
       <c r="F44" t="n">
-        <v>0.092913664049269</v>
+        <v>0.09683086269022785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03383037119342589</v>
+        <v>0.0247867439136109</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2394397612.920978</v>
+        <v>2009345167.020947</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1726525343174549</v>
+        <v>0.1758508799558673</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04475670196925959</v>
+        <v>0.03831020720790418</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3857856435.130864</v>
+        <v>3719727052.3857</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1165764904838403</v>
+        <v>0.1489010084951285</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04958676144369128</v>
+        <v>0.03948883568670168</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>198</v>
+      </c>
+      <c r="J46" t="n">
+        <v>331</v>
+      </c>
+      <c r="K46" t="n">
+        <v>58.88342751031212</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3492541111.048343</v>
+        <v>3445798613.8291</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1250290455523987</v>
+        <v>0.1400650126118845</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04944076384886615</v>
+        <v>0.04391635278252459</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>148</v>
+      </c>
+      <c r="J47" t="n">
+        <v>330</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3515307255.631836</v>
+        <v>3325297747.860054</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08752231136389732</v>
+        <v>0.1033679252092091</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02697922553554943</v>
+        <v>0.02973952335890064</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>165</v>
+      </c>
+      <c r="J48" t="n">
+        <v>330</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1275476570.619006</v>
+        <v>1312124803.506767</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1924391480277798</v>
+        <v>0.1894174104826727</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03588265896253912</v>
+        <v>0.03928200543630891</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3404228412.957262</v>
+        <v>2857595218.841637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1110877352832739</v>
+        <v>0.129469614234083</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04354326801928007</v>
+        <v>0.03377157031162882</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>109</v>
+      </c>
+      <c r="J50" t="n">
+        <v>330</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1427713745.028814</v>
+        <v>1221317190.924231</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1788112218177369</v>
+        <v>0.1853697486845528</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03538365172156304</v>
+        <v>0.04053080884414461</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4001423263.696546</v>
+        <v>5294821369.448991</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1042304684025696</v>
+        <v>0.1269343390793518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04051168386187903</v>
+        <v>0.05579070909023709</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>200</v>
+      </c>
+      <c r="J52" t="n">
+        <v>332</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3185250087.662343</v>
+        <v>2301715841.905281</v>
       </c>
       <c r="F53" t="n">
-        <v>0.183036395940269</v>
+        <v>0.18331417867186</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03155778944384934</v>
+        <v>0.03482973992150121</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4683907391.776572</v>
+        <v>4548345323.80633</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1492365614301872</v>
+        <v>0.1282606237467631</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03975213288665155</v>
+        <v>0.03604938534487527</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>174</v>
+      </c>
+      <c r="J54" t="n">
+        <v>332</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3215491092.218843</v>
+        <v>4886215225.334287</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1781243978565864</v>
+        <v>0.2155177142729494</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03111084246376644</v>
+        <v>0.02398597947643006</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>157</v>
+      </c>
+      <c r="J55" t="n">
+        <v>332</v>
+      </c>
+      <c r="K55" t="n">
+        <v>73.30474274233549</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1399098576.126012</v>
+        <v>1751357375.680311</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1202339155189829</v>
+        <v>0.1147751358022606</v>
       </c>
       <c r="G56" t="n">
-        <v>0.056914936497238</v>
+        <v>0.05667340898626498</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4108435434.857038</v>
+        <v>3932218011.780762</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1718590152747313</v>
+        <v>0.1533102503997075</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01734192720468176</v>
+        <v>0.02724428183052856</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>135</v>
+      </c>
+      <c r="J57" t="n">
+        <v>332</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1788599178.267233</v>
+        <v>1268488843.743324</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1797879332980988</v>
+        <v>0.1811135246208077</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0356464002639678</v>
+        <v>0.03384828907480102</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4212171741.421541</v>
+        <v>5146812659.387313</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1269056673682147</v>
+        <v>0.1101504317526954</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03522401629505896</v>
+        <v>0.035224021065551</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>160</v>
+      </c>
+      <c r="J59" t="n">
+        <v>331</v>
+      </c>
+      <c r="K59" t="n">
+        <v>68.72647641647872</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3759592791.653871</v>
+        <v>2507538487.481445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1545983989854062</v>
+        <v>0.1527005318215588</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02203725030138643</v>
+        <v>0.03199310592487203</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2929730742.683167</v>
+        <v>2460685418.748837</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1350192862699688</v>
+        <v>0.1395776996447814</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02358127492799311</v>
+        <v>0.0203552151404287</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1747884613.770914</v>
+        <v>2018976255.022744</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1493618931181218</v>
+        <v>0.1426747157623261</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03160587760556807</v>
+        <v>0.04916533119980896</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5408715669.091344</v>
+        <v>5444267181.613092</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1016083616313</v>
+        <v>0.09013524322087306</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03148627432554707</v>
+        <v>0.04179499144061161</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>162</v>
+      </c>
+      <c r="J63" t="n">
+        <v>331</v>
+      </c>
+      <c r="K63" t="n">
+        <v>69.22028065025995</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4939260807.282177</v>
+        <v>4825335949.338836</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1767509062998313</v>
+        <v>0.1724498845730039</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03066143330470779</v>
+        <v>0.02422529839398456</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>164</v>
+      </c>
+      <c r="J64" t="n">
+        <v>331</v>
+      </c>
+      <c r="K64" t="n">
+        <v>69.50819080248313</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5125047635.839473</v>
+        <v>4189918581.13409</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1624053360493991</v>
+        <v>0.1567379751035419</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02241558778056442</v>
+        <v>0.02846574601556593</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>259</v>
+      </c>
+      <c r="J65" t="n">
+        <v>332</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4858045412.198896</v>
+        <v>5618338263.308546</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1566792450430923</v>
+        <v>0.09917657860078644</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04841710326708479</v>
+        <v>0.04659460331740802</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>164</v>
+      </c>
+      <c r="J66" t="n">
+        <v>331</v>
+      </c>
+      <c r="K66" t="n">
+        <v>64.59961338132356</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3166996598.255589</v>
+        <v>2382425258.113464</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07341042427187149</v>
+        <v>0.08046983150606676</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04731320393855496</v>
+        <v>0.03825304747967621</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5687569202.091475</v>
+        <v>5357943934.040221</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1400283308739025</v>
+        <v>0.1289600235208347</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04166000293780397</v>
+        <v>0.0507710559574065</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>180</v>
+      </c>
+      <c r="J68" t="n">
+        <v>332</v>
+      </c>
+      <c r="K68" t="n">
+        <v>70.48158067452903</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1558141835.695692</v>
+        <v>1589725955.078951</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1216450798920082</v>
+        <v>0.1377116289768416</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05307689031778944</v>
+        <v>0.04593649208216802</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3596638541.034442</v>
+        <v>3447122243.314021</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07547635864568446</v>
+        <v>0.07676103065540071</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04295628154983858</v>
+        <v>0.03277518956599856</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4735003659.515289</v>
+        <v>4153188256.801524</v>
       </c>
       <c r="F71" t="n">
-        <v>0.168631465696555</v>
+        <v>0.1416612291287941</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0285734236154947</v>
+        <v>0.03201864879572748</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>245</v>
+      </c>
+      <c r="J71" t="n">
+        <v>332</v>
+      </c>
+      <c r="K71" t="n">
+        <v>70.60573941102058</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2101945037.098297</v>
+        <v>1694036567.163679</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1088551629950558</v>
+        <v>0.1025514860679803</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04043051286423827</v>
+        <v>0.04492569107390275</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3104519595.857226</v>
+        <v>2691485372.49651</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1020229904217189</v>
+        <v>0.0802747698764176</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04466885570074604</v>
+        <v>0.05044067527748868</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3688982553.970529</v>
+        <v>3308785566.808146</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1686247427814273</v>
+        <v>0.1638108772296012</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02153772717068347</v>
+        <v>0.02338580334297759</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>87</v>
+      </c>
+      <c r="J74" t="n">
+        <v>328</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2074383434.287693</v>
+        <v>2480090646.088327</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1561363761268004</v>
+        <v>0.1298993174243462</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02393087358501521</v>
+        <v>0.02319708781644898</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3788204636.615045</v>
+        <v>3952605401.253588</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08391321541419537</v>
+        <v>0.09525961178446364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02378829658917819</v>
+        <v>0.02695503811422082</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>156</v>
+      </c>
+      <c r="J76" t="n">
+        <v>332</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1508429573.972487</v>
+        <v>2166961118.370171</v>
       </c>
       <c r="F77" t="n">
-        <v>0.155649080716767</v>
+        <v>0.1309753106513982</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02532418790872984</v>
+        <v>0.02619807791982152</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3199394937.884514</v>
+        <v>3065950667.644593</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1155461568621408</v>
+        <v>0.08543421916187517</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04543252915342055</v>
+        <v>0.03861024949769685</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>163</v>
+      </c>
+      <c r="J78" t="n">
+        <v>330</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1328621900.796042</v>
+        <v>1711270953.248313</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1642236306219479</v>
+        <v>0.1181369784629776</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03692243189881236</v>
+        <v>0.02550547837899541</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5376809332.373082</v>
+        <v>5548206630.728839</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1099825428067978</v>
+        <v>0.08704403389318573</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02763130420226563</v>
+        <v>0.03468188515165456</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>162</v>
+      </c>
+      <c r="J80" t="n">
+        <v>332</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4738010234.725452</v>
+        <v>4214052908.294378</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1178622183310321</v>
+        <v>0.0868340924094412</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02946631450809273</v>
+        <v>0.0199435555424151</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>153</v>
+      </c>
+      <c r="J81" t="n">
+        <v>331</v>
+      </c>
+      <c r="K81" t="n">
+        <v>64.47338729158463</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5515833679.083915</v>
+        <v>4568741960.587911</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1902548810493934</v>
+        <v>0.2014373049590787</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02796416945677865</v>
+        <v>0.02110261825938086</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>238</v>
+      </c>
+      <c r="J82" t="n">
+        <v>332</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2392849793.637199</v>
+        <v>1979324225.977362</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1104661380469656</v>
+        <v>0.1470277274504424</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04003529399843212</v>
+        <v>0.04289256563615822</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2244613536.546493</v>
+        <v>2529365020.972896</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08440710281000385</v>
+        <v>0.09084052669002649</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03244856178608358</v>
+        <v>0.03329925855864434</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2943188160.655216</v>
+        <v>3636140503.531722</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1274477464547459</v>
+        <v>0.1368585432065318</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03729343867605131</v>
+        <v>0.04874893084489101</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3473,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2530034659.429924</v>
+        <v>2388730452.974724</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1344422711455238</v>
+        <v>0.1164338331720101</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02511026431117338</v>
+        <v>0.02250378547452944</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>953940781.7150351</v>
+        <v>1277720577.302287</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1287386226497371</v>
+        <v>0.174282462760354</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0318590809718339</v>
+        <v>0.04416719806648391</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3320798231.945082</v>
+        <v>2294103002.185242</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1098092400578711</v>
+        <v>0.1438199916302992</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02898541677760555</v>
+        <v>0.03799187578911194</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="n">
+        <v>26.55213592757753</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2712284682.212148</v>
+        <v>3446913498.274494</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1194609393215208</v>
+        <v>0.1025397145816853</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03384833575793914</v>
+        <v>0.02574082634492582</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1617975157.144084</v>
+        <v>1638745275.465642</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1166918457712023</v>
+        <v>0.1154072879558845</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03762841990584554</v>
+        <v>0.05270874113516273</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1500651902.144945</v>
+        <v>2055666678.15607</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1276971051104228</v>
+        <v>0.1294732976117728</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05570106079019544</v>
+        <v>0.05999590707622558</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2994925173.104182</v>
+        <v>2974744643.227119</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09646725820851201</v>
+        <v>0.08487987735633602</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04523183348940405</v>
+        <v>0.04772694072721582</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3210414394.281566</v>
+        <v>4105091726.946053</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1310380790074391</v>
+        <v>0.08992287855645312</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04051986462391132</v>
+        <v>0.05409324444369719</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>152</v>
+      </c>
+      <c r="J93" t="n">
+        <v>331</v>
+      </c>
+      <c r="K93" t="n">
+        <v>68.94299035685415</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2141641337.100383</v>
+        <v>1762581387.908746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.117592870867485</v>
+        <v>0.1028401893796208</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03876791605352138</v>
+        <v>0.04286212937901687</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3023526807.019208</v>
+        <v>2370092416.206948</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0967214238012782</v>
+        <v>0.1089670974910012</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04604341978034448</v>
+        <v>0.04807790241062197</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1465028482.100983</v>
+        <v>1902254040.415597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1188534825324339</v>
+        <v>0.1161828390487237</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03763675987361016</v>
+        <v>0.04342568163621584</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3523514969.833417</v>
+        <v>4644397770.282597</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1725051332450213</v>
+        <v>0.1660798967554089</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01998045084968994</v>
+        <v>0.01933250268887243</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>170</v>
+      </c>
+      <c r="J97" t="n">
+        <v>332</v>
+      </c>
+      <c r="K97" t="n">
+        <v>71.61033394893008</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2637906363.271148</v>
+        <v>3889746537.646504</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09798716876175535</v>
+        <v>0.09970446253723712</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02854334647836205</v>
+        <v>0.03268442759507714</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>82</v>
+      </c>
+      <c r="J98" t="n">
+        <v>332</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3033775224.088799</v>
+        <v>2101374575.288362</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1418680837546482</v>
+        <v>0.131309267458096</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02906334099184738</v>
+        <v>0.02267474580489779</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4303613435.193202</v>
+        <v>3885650775.123435</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1192626919321095</v>
+        <v>0.1800815495467878</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02752305795402175</v>
+        <v>0.01751927708272153</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>148</v>
+      </c>
+      <c r="J100" t="n">
+        <v>332</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3582031450.481087</v>
+        <v>2231299006.693845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1440750264319674</v>
+        <v>0.1446666039961003</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04054456670506515</v>
+        <v>0.04391462670493923</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="n">
+        <v>27.48949632208795</v>
       </c>
     </row>
   </sheetData>
